--- a/biology/Médecine/Cathepsine_S/Cathepsine_S.xlsx
+++ b/biology/Médecine/Cathepsine_S/Cathepsine_S.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cathepsine S est une protéine appartenant à la famille des cathepsines, avec un rôle de protéase. Son gène est CTSS situé sur le chromosome 1 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est exprimée dans les cellules musculaires lisses et dans les macrophages, essentiellement au niveau de la plaque d'athérome où elle dégrade l'élastine[5].
-Elle favorise la formation de l'athérome[6] et son action est contrecarré par la cystatine C[7]. Ellefavorise également l'angiogenèse des microvaisseaux[8]. 
-Son taux circulant est augmenté en cas de diabète sucré ou d'athérome[9] et serait corrélé avec la mortalité[10], ce qui en ferait un marqueur de risque[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est exprimée dans les cellules musculaires lisses et dans les macrophages, essentiellement au niveau de la plaque d'athérome où elle dégrade l'élastine.
+Elle favorise la formation de l'athérome et son action est contrecarré par la cystatine C. Ellefavorise également l'angiogenèse des microvaisseaux. 
+Son taux circulant est augmenté en cas de diabète sucré ou d'athérome et serait corrélé avec la mortalité, ce qui en ferait un marqueur de risque.
 </t>
         </is>
       </c>
